--- a/biology/Botanique/Patricia_Berjak/Patricia_Berjak.xlsx
+++ b/biology/Botanique/Patricia_Berjak/Patricia_Berjak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patricia Berjak FRSSAf (29 décembre 1939 – 21 janvier 2015) est une botaniste sud-africaine connue pour ses travaux sur la biologie des graines, en particulier les semence récalcitrantes[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patricia Berjak FRSSAf (29 décembre 1939 – 21 janvier 2015) est une botaniste sud-africaine connue pour ses travaux sur la biologie des graines, en particulier les semence récalcitrantes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est professeur durant 48 ans à l'université du KwaZulu-Natal (UKZN). Elle a obtenu un B. Sc. en biochimie à l'université du Witwatersrand (1962), puis est allée à l'université de Natal (maintenant UKZN), où elle obtient un M. Sc. en physiologie et biochimie des mammifères (1966) puis un Doctorat en biologie de la graine (1969).
 </t>
@@ -542,7 +556,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est membre de l'Académie des sciences d'Afrique du Sud et Fellow de l'Université de Natal, de la Société royale d'Afrique du Sud et de l'Académie des Sciences du Tiers-Monde. Elle a reçu l'Ordre de Mapungubwe (Argent) en 2006.
 </t>
